--- a/content/drafts/entitats/Agrupacio_tematica_nivell_domini.xlsx
+++ b/content/drafts/entitats/Agrupacio_tematica_nivell_domini.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/79.Agrupacio_tematica nivell domini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\20 Cataleg\60 Modelatge\79.Agrupacio_tematica nivell domini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{D68DE29D-65EE-4D69-8E44-5D6A8E9724A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E005D292-5535-430F-9E62-F59ACC8D8263}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AB12DD-400F-4F96-B23E-61FC63D04CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agrupacio_tematica_domini" sheetId="1" r:id="rId1"/>
@@ -224,9 +224,6 @@
     <t>Actuacions de planificació, regulació, gestió, i difusió del patrimoni cultural, així com de les seves activitats culturals i artístiques. La llengua i els símbols de Catalunya.</t>
   </si>
   <si>
-    <t>Activitats relacionades amb el sistema econòmic de Catalunya i la manera de generar recursos i la creació de riquesa. Inclou les relacions i agents socials que afecten a la distribució i consum de béns i serveis. L'emprenedoria i la creació d'empreses, els registres de la propietat, mercantils, de béns mobles, i la internacionalització de les activitats empresarials. Inclou l'economia social i el cooperativisme. Caixes d'estalvi i banca.</t>
-  </si>
-  <si>
     <t>Funcions relatives a la planificació, ordenació, coordinació, gestió i l'avaluació del sistema educatiu de Catalunya, incloent-hi la gestió dels centres, els serveis educatius i les prestacions als alumnes.
 Contempla tots els cicles formatius, des de l'educació infantil fins a l'educació superior impartida per les universitats, així com també les activitats de formació continuada i especialitzada., tant si s’imparteix en centres públics com privats.</t>
   </si>
@@ -241,9 +238,6 @@
     <t>Les activitats de recerca aplicada, innovació i transferència de tecnologia i coneixement, tant en el sector públic com en el privat. Els centres de recerca científica i tècnica i la formació i el desenvolupament professional del personal investigador i de suport. La divulgació científica i programes de col·laboració en matèria de recerca científica i tecnològica.</t>
   </si>
   <si>
-    <t>Funcions relatives a les polítiques financeres i els recursos financers i hisenda de la Generalitat, els pressupostos, la tresoreria, els tributs i impostos, els fons europeus i subvencions estatals, la gestió del patrimoni ( incloent béns mobles, béns immobles i béns immaterials), i la funció interventora.</t>
-  </si>
-  <si>
     <t>Sistemes d'informació institucional, els serveis de telecomunicacions i societat de la informació, els mitjans de comunicació, els recursos d'informació i. Inclou els sistemes d'informació corporatius. Tractament estadístic, publicitat i transparència.</t>
   </si>
   <si>
@@ -255,6 +249,12 @@
   <si>
     <t>Funcions associades amb el concepte d'individu i cohesió social, i amb els nexes o lligams que uneixen a les persones en la societat, particularment en el context de la diversitat. Capacitat d’una societat per garantir el benestar de tots els seus membres, minimitzar les disparitats i evitar la marginació, com ara la qualitat de vida dels ciutadans i grups socials, la igualtat d’oportunitats entre individus, la reducció de les desigualtats socials, l’existència de valors compartits, la pertinença a la comunitat o el reconeixement de les diferències com un valor positiu en el desenvolupament de les relacions socials i comunitàries.
 Inclous els processos de relació amb l'Administració i d'atenció ciutadana, participació i consultes, protecció de dades personals i memòria històrica.</t>
+  </si>
+  <si>
+    <t>Activitats relacionades amb l’activitat econòmica a Catalunya i la manera de generar recursos i la creació de riquesa. Inclou les relacions i agents socials que afecten a la distribució i consum de béns i serveis. L'emprenedoria i la creació d'empreses, els registres de la propietat, mercantils, de béns mobles, i la internacionalització de les activitats empresarials. Inclou l'economia social i el cooperativisme. Caixes d'estalvi i banca.</t>
+  </si>
+  <si>
+    <t>Funcions atribuïdes d’acord amb la capacitat auto organitzativa de la Generalitat per a gestionar les polítiques financeres, els recursos financers i hisenda, els pressupostos, la tresoreria, els tributs i impostos, els fons europeus i subvencions estatals, la gestió del patrimoni ( incloent béns mobles, béns immobles i béns immaterials), i la funció interventora.</t>
   </si>
 </sst>
 </file>
@@ -795,7 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -876,7 +876,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -887,7 +887,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -901,7 +901,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>42</v>
       </c>
@@ -909,7 +909,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -931,7 +931,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -953,7 +953,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -964,7 +964,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -986,7 +986,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -997,7 +997,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -1008,7 +1008,7 @@
         <v>34</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -1019,7 +1019,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1077,17 +1077,32 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a50253f552cd15765e58fb5d1e43959a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d8405c2c6377cc88ff03d0ac4a3d3549" ns2:_="">
+    <xsd:import namespace="ae060729-66f1-4cea-a45e-be2331389c13"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns1:PublishingStartDate" minOccurs="0"/>
-                <xsd:element ref="ns1:PublishingExpirationDate" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1095,17 +1110,46 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ae060729-66f1-4cea-a45e-be2331389c13" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="PublishingStartDate" ma:index="8" nillable="true" ma:displayName="Data d'inici de la planificació" ma:description="Data d'inici de la planificació és una columna del lloc creada per la característica de publicació. S'utilitza per especificar la data i l'hora en què aquesta pàgina començarà a aparèixer als visitants del lloc." ma:hidden="true" ma:internalName="PublishingStartDate">
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="PublishingExpirationDate" ma:index="9" nillable="true" ma:displayName="Data de finalització de la planificació" ma:description="Data de finalització de la planificació és una columna del lloc creada per la característica de publicació. S'utilitza per especificar la data i l'hora en què aquesta pàgina deixarà d'aparèixer als visitants del lloc." ma:hidden="true" ma:internalName="PublishingExpirationDate">
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d19f90c4-00d9-45b7-bc62-04f95cbe7a8b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1118,8 +1162,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipus de contingut"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Títol"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1208,15 +1252,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1227,24 +1262,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1260,6 +1277,10 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9E8FE55-4FC8-4CA2-A4BE-0B1018D9AF7A}"/>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
   <ds:schemaRefs>
